--- a/custos.xlsx
+++ b/custos.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8363B04-773A-7748-AABE-769285AE7347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="pacotes_trabalho" sheetId="1" r:id="rId1"/>
+    <sheet name="duracao_trabalho" sheetId="2" r:id="rId2"/>
+    <sheet name="custos_projeto" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t xml:space="preserve">Lista de atividades </t>
   </si>
@@ -74,11 +78,42 @@
   <si>
     <t xml:space="preserve">1 dia </t>
   </si>
+  <si>
+    <t>CUSTO DA EXECUÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORAS TRABALHADAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DURAÇÃO MEDIA </t>
+  </si>
+  <si>
+    <t>CUSTOS DO PROJETO</t>
+  </si>
+  <si>
+    <t>VALOR MEDIO DE HORAS TRABALHADAS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>valor da revisão</t>
+  </si>
+  <si>
+    <t>valor por dia</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,13 +143,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,30 +191,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7857322-AE94-3543-BEB8-CC33A9B5E294}" name="Tabela1" displayName="Tabela1" ref="A1:A1048576" totalsRowShown="0">
-  <autoFilter ref="A1:A1048576" xr:uid="{480204BE-EDBC-E641-97B0-06E42C9056AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:A1048576" totalsRowShown="0">
+  <autoFilter ref="A1:A1048576"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A028A827-DD49-8C4D-A2DA-9FA293EB92C3}" name="Lista de atividades "/>
+    <tableColumn id="1" name="Lista de atividades "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB7B118B-8FF7-324D-A680-777E74D5FC6A}" name="Tabela2" displayName="Tabela2" ref="B1:B1048576" totalsRowShown="0">
-  <autoFilter ref="B1:B1048576" xr:uid="{71C83454-A975-7242-8590-C6DBFA4AD226}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B1:B1048576" totalsRowShown="0">
+  <autoFilter ref="B1:B1048576"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{857A67C3-BA34-6141-B295-DEC9802B3D43}" name="Duração"/>
+    <tableColumn id="1" name="Duração"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1607EE5C-C594-CE41-A15B-07843B1D4516}" name="Tabela3" displayName="Tabela3" ref="C1:C1048576" totalsRowShown="0">
-  <autoFilter ref="C1:C1048576" xr:uid="{24C49779-575B-4D4F-BC8D-86C4E42EA849}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="C1:C1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="C1:C1048576"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{488231BB-3BCE-3A4C-A6D8-90AC42D275F1}" name="Custo de execucso "/>
+    <tableColumn id="1" name="Custo de execucso " dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:A11" totalsRowShown="0">
+  <autoFilter ref="A1:A11"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="CUSTO DA EXECUÇÃO" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="B1:B13" totalsRowCount="1" headerRowDxfId="4" dataDxfId="2">
+  <autoFilter ref="B1:B13"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="HORAS TRABALHADAS " dataDxfId="3" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="C1:C12" totalsRowShown="0">
+  <autoFilter ref="C1:C12"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="DURAÇÃO MEDIA "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A1:A11" totalsRowShown="0">
+  <autoFilter ref="A1:A11"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="CUSTOS DO PROJETO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="B2:B19" totalsRowShown="0">
+  <autoFilter ref="B2:B19"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="VALOR MEDIO DE HORAS TRABALHADAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -453,142 +566,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE737A90-A991-A545-89D7-0FABA242E09F}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.4140625" customWidth="1"/>
-    <col min="3" max="3" width="19.37109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>2738.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>4109.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>450</v>
+      <c r="C11" s="1">
+        <v>2760.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUBTOTAL(109,C2:C13)</f>
+        <v>30831.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C14/B13</f>
+        <v>3083.116</v>
       </c>
     </row>
   </sheetData>
@@ -602,25 +741,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE2071E-ED58-B24C-AD5E-EF95BA8BD18C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2280</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2738.09</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4109.09</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2345</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2760.98</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <f>SUM(Tabela5[[#Data],[#Totals],[HORAS TRABALHADAS ]])</f>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E86E29-B38C-C343-AC5A-E9077DA84392}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>30831.16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>